--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741828.475417877</v>
+        <v>817164.4107271894</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6110993.06725443</v>
+        <v>6110993.067254428</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>28.93420885558032</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>168.6129708956182</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189225</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>100.402807830487</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>60.31382691113669</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -984,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G6" t="n">
         <v>134.9994691657081</v>
@@ -1023,7 +1025,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>106.4735778903241</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1110,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>61.36917500887014</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>159.9177984943989</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>106.968720738993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>146.8428862394539</v>
+        <v>146.8428862394535</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1373,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>186.6141597285327</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>396.2429621606566</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>143.6484612441728</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>251.2285928046444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>186.6141597285327</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041388</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>122.835602792115</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.2532214802697</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>105.0023863360951</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>243.2391485592458</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>95.44336989065563</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>161.2026687524966</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>232.0435653572846</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7965692041379</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115.0138334144179</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>88.89700561060629</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>349.4526337405161</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041376</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>132.7732256808687</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386306</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>188.2196394312107</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>163.0414221154275</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>217.4699999005364</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>37.67709528776653</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>184.1739595194687</v>
+        <v>227.7359967734925</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>87.93270968653111</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>31.93582623763023</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>328.0423659626478</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>17.35112070699443</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>229.6877957932874</v>
+        <v>117.4014735002803</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>79.0318776430347</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>184.5496477570983</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>149.3991884271815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>81.77200357366283</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>363.4055856812031</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>131.0573912450687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>71.80438351510603</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>80.58888762872013</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>308.920356475714</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>229.7965692041362</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>20.95866062610961</v>
+        <v>20.95866062610893</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159602</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>154.4221920189732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>81.46084344268519</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>132.7732256808683</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,16 +4330,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2364.718577705862</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1991.252819444782</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4431,10 +4433,10 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
         <v>3003.380581373021</v>
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="D5" t="n">
-        <v>1381.278680221567</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E5" t="n">
-        <v>995.4904276233224</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F5" t="n">
-        <v>584.5045228337149</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>169.4320726787113</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
         <v>312.3844025601599</v>
@@ -4641,7 +4643,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4756,19 +4758,19 @@
         <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5011820977088</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V7" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W7" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="X7" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720652</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1930.094988518961</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1561.13247157855</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1202.866772971799</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>817.078520373555</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="Y8" t="n">
-        <v>2316.694828583083</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4901,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="D10" t="n">
         <v>772.5608581015648</v>
@@ -4951,61 +4953,61 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308157</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.438374367745</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>764.3411331473119</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>764.3411331473119</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>764.3411331473119</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912088</v>
@@ -5057,34 +5059,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.60582160917</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.14006334809</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.000731372279</v>
+        <v>1878.169188758596</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064552</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181849</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181849</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D13" t="n">
-        <v>770.7703664058491</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E13" t="n">
-        <v>622.857272823456</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2175.400891308157</v>
+        <v>1822.632236038045</v>
       </c>
       <c r="C14" t="n">
-        <v>1806.438374367745</v>
+        <v>1453.669719097633</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490883</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926384</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030308</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.60582160917</v>
+        <v>2972.837166339058</v>
       </c>
       <c r="X14" t="n">
-        <v>2952.14006334809</v>
+        <v>2599.371408077978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2562.000731372279</v>
+        <v>2209.232076102167</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031464</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215812</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992583</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181849</v>
+        <v>751.9508228902789</v>
       </c>
       <c r="D16" t="n">
-        <v>770.7703664058491</v>
+        <v>601.8341834779432</v>
       </c>
       <c r="E16" t="n">
-        <v>622.857272823456</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F16" t="n">
-        <v>475.9673253255456</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2303.170539913434</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>810.5660676371782</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>452.3003690304277</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.605821609171</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X17" t="n">
-        <v>3079.909711953368</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y17" t="n">
-        <v>2689.770379977556</v>
+        <v>1566.128424641712</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,28 +5582,28 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992584</v>
@@ -5610,16 +5612,16 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T19" t="n">
-        <v>758.0560272803096</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="U19" t="n">
-        <v>468.9531604059532</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="V19" t="n">
-        <v>468.9531604059532</v>
+        <v>162.919560766179</v>
       </c>
       <c r="W19" t="n">
-        <v>468.9531604059532</v>
+        <v>162.919560766179</v>
       </c>
       <c r="X19" t="n">
-        <v>468.9531604059532</v>
+        <v>162.919560766179</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.1605812624231</v>
+        <v>162.919560766179</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1647.321240915451</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5774,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3091.218381854337</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2760.155494510766</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W20" t="n">
-        <v>2407.386839240652</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X20" t="n">
-        <v>2033.921080979572</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y20" t="n">
-        <v>2033.921080979572</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5828,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760608</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497871</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>831.0920506559569</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.60582160917</v>
+        <v>831.0920506559569</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.60582160917</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.60582160917</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W22" t="n">
-        <v>3036.188651572209</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X22" t="n">
-        <v>2808.199100674192</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y22" t="n">
-        <v>2587.406521530662</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1661.795585684488</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C23" t="n">
-        <v>1292.833068744076</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D23" t="n">
-        <v>934.5673701373257</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6011,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539436</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269321</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008242</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y23" t="n">
-        <v>2014.778044008242</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>384.3315924698002</v>
+        <v>3085.086795643716</v>
       </c>
       <c r="C25" t="n">
-        <v>384.3315924698002</v>
+        <v>2916.150612715809</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574644</v>
+        <v>2766.033973303473</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574644</v>
+        <v>2618.12087972108</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X25" t="n">
-        <v>786.77263644357</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="Y25" t="n">
-        <v>565.9800573000399</v>
+        <v>3266.735260473956</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038042</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097631</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.40402049088</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="E26" t="n">
-        <v>709.6157678926361</v>
+        <v>646.2728717542855</v>
       </c>
       <c r="F26" t="n">
-        <v>298.6298631030285</v>
+        <v>646.2728717542855</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>231.2004215992819</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6236,16 +6238,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
@@ -6254,22 +6256,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102164</v>
+        <v>1418.660964416651</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6321,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.1808689801002</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="C28" t="n">
-        <v>532.2446860521933</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D28" t="n">
-        <v>382.1280466398575</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E28" t="n">
-        <v>234.2149530574644</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L28" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="W28" t="n">
-        <v>882.8293338103399</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="X28" t="n">
-        <v>882.8293338103399</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="Y28" t="n">
-        <v>882.8293338103399</v>
+        <v>479.4537238215122</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.669719097631</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D29" t="n">
-        <v>1095.40402049088</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="E29" t="n">
-        <v>709.6157678926361</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="F29" t="n">
-        <v>709.6157678926361</v>
+        <v>711.6209269644521</v>
       </c>
       <c r="G29" t="n">
-        <v>294.5433177376325</v>
+        <v>296.5484768094486</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6473,16 +6475,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
@@ -6497,16 +6499,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="30">
@@ -6531,28 +6533,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S31" t="n">
-        <v>729.2011216450112</v>
+        <v>3236.784902733886</v>
       </c>
       <c r="T31" t="n">
-        <v>729.2011216450112</v>
+        <v>3015.018287303412</v>
       </c>
       <c r="U31" t="n">
-        <v>729.2011216450112</v>
+        <v>2725.915420429055</v>
       </c>
       <c r="V31" t="n">
-        <v>729.2011216450112</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="W31" t="n">
-        <v>696.9427113039706</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="X31" t="n">
-        <v>468.9531604059532</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y31" t="n">
-        <v>248.1605812624231</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2047.583838282732</v>
+        <v>1921.870414581993</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.62132134232</v>
+        <v>1552.907897641581</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>1194.642199034831</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>808.8539464365867</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>397.8680416469792</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6710,10 +6712,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296685</v>
@@ -6725,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W32" t="n">
-        <v>3197.788768583745</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X32" t="n">
-        <v>2824.323010322666</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y32" t="n">
-        <v>2434.183678346854</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986293</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C34" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
         <v>66.5121164321834</v>
@@ -6856,52 +6858,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K34" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U34" t="n">
-        <v>688.8791312795107</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V34" t="n">
-        <v>434.1946430736239</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W34" t="n">
-        <v>434.1946430736239</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X34" t="n">
-        <v>434.1946430736239</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1712.341567565137</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C35" t="n">
-        <v>1343.379050624726</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>985.1133520179753</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>599.325099419731</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>188.3391946301235</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
         <v>108.5090151927147</v>
@@ -6932,10 +6934,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
@@ -6947,40 +6949,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>3139.192035995939</v>
       </c>
       <c r="V35" t="n">
-        <v>3215.315153136265</v>
+        <v>2808.129148652368</v>
       </c>
       <c r="W35" t="n">
-        <v>2862.546497866151</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="X35" t="n">
-        <v>2489.080739605071</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y35" t="n">
-        <v>2098.941407629259</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7096,19 +7098,19 @@
         <v>2483.053685760608</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L37" t="n">
         <v>2737.074383950636</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N37" t="n">
         <v>3075.815702279681</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P37" t="n">
         <v>3312.685054250629</v>
@@ -7123,19 +7125,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.60582160917</v>
+        <v>3174.697550470602</v>
       </c>
       <c r="U37" t="n">
-        <v>3036.502954734814</v>
+        <v>3174.697550470602</v>
       </c>
       <c r="V37" t="n">
-        <v>2781.818466528927</v>
+        <v>2920.013062264716</v>
       </c>
       <c r="W37" t="n">
-        <v>2699.220483121187</v>
+        <v>2920.013062264716</v>
       </c>
       <c r="X37" t="n">
-        <v>2471.230932223169</v>
+        <v>2692.023511366699</v>
       </c>
       <c r="Y37" t="n">
         <v>2471.230932223169</v>
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1179.52858457759</v>
+        <v>2255.174438931363</v>
       </c>
       <c r="C38" t="n">
-        <v>810.5660676371781</v>
+        <v>1886.211921990951</v>
       </c>
       <c r="D38" t="n">
-        <v>452.3003690304276</v>
+        <v>1527.9462233842</v>
       </c>
       <c r="E38" t="n">
-        <v>66.5121164321834</v>
+        <v>1142.157970785956</v>
       </c>
       <c r="F38" t="n">
-        <v>66.5121164321834</v>
+        <v>731.1720659963487</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y38" t="n">
-        <v>1566.128424641711</v>
+        <v>2641.774278995485</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031477</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>403.1511359853714</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="C40" t="n">
-        <v>234.2149530574644</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="D40" t="n">
-        <v>234.2149530574644</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="E40" t="n">
-        <v>234.2149530574644</v>
+        <v>139.0417967504723</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574644</v>
+        <v>139.0417967504723</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K40" t="n">
         <v>176.6457242372932</v>
@@ -7354,28 +7356,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V40" t="n">
-        <v>666.202517612298</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W40" t="n">
-        <v>584.799600815611</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="X40" t="n">
-        <v>584.799600815611</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="Y40" t="n">
-        <v>584.799600815611</v>
+        <v>286.9548903328654</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.569348694473</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.606831754061</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D41" t="n">
-        <v>764.3411331473105</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E41" t="n">
-        <v>378.5528805490663</v>
+        <v>709.6157678926356</v>
       </c>
       <c r="F41" t="n">
-        <v>66.5121164321834</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2641.774278995486</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.308520734406</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.169188758594</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="42">
@@ -7479,31 +7481,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031491</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
         <v>2407.411984886741</v>
@@ -7543,58 +7545,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T43" t="n">
         <v>899.7166415493873</v>
@@ -7606,13 +7608,13 @@
         <v>355.929286469144</v>
       </c>
       <c r="W43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1343.379050624725</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>985.1133520179749</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>599.3250994197306</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>188.339194630123</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7664,34 +7666,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923658</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W44" t="n">
-        <v>2535.034709923658</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X44" t="n">
-        <v>2161.568951662578</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y44" t="n">
-        <v>2005.586939522201</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="45">
@@ -7716,31 +7718,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2789.050408260786</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C46" t="n">
-        <v>2789.050408260786</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D46" t="n">
-        <v>2638.93376884845</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E46" t="n">
-        <v>2638.93376884845</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F46" t="n">
-        <v>2638.93376884845</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G46" t="n">
         <v>2471.230932223169</v>
@@ -7807,19 +7809,19 @@
         <v>2483.053685760608</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L46" t="n">
         <v>2737.074383950636</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N46" t="n">
         <v>3075.815702279681</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P46" t="n">
         <v>3312.685054250629</v>
@@ -7831,25 +7833,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>3243.322141364033</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.60582160917</v>
+        <v>3243.322141364033</v>
       </c>
       <c r="U46" t="n">
-        <v>3325.60582160917</v>
+        <v>3243.322141364033</v>
       </c>
       <c r="V46" t="n">
-        <v>3325.60582160917</v>
+        <v>2988.637653158146</v>
       </c>
       <c r="W46" t="n">
-        <v>3325.60582160917</v>
+        <v>2699.220483121186</v>
       </c>
       <c r="X46" t="n">
-        <v>3191.491452234556</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y46" t="n">
-        <v>2970.698873091026</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
   </sheetData>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>325.7488327651026</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,7 +22609,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>180.6279978217948</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>282.3310338329935</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,13 +22795,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>234.2939374761838</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22835,10 +22837,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>59.55223036870413</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22996,10 +22998,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>190.7684683149579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23024,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>189.3231702230141</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>279.2692179170606</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23112,7 +23114,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23182,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>1.772586778758495</v>
+        <v>1.772586778758807</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>168.0688818921502</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>14.6787634927968</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23311,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>1.772586778758495</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>34.98324540096851</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>168.0688818921502</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>181.1251564493146</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,19 +23655,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>23.59835985445415</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>1.772586778758495</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,19 +23785,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>145.9927856228069</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>126.4919521192232</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>84.38861029128167</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>58.34628052367262</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,10 +24025,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>18.95160660161739</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>97.95568926599702</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.81814676751941</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>100.8720197208356</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33.28120792296443</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>181.1251564493159</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,10 +24262,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.93642970816845</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>160.3027978282317</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>222.7020862222428</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>131.5663422718929</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>68.7418383050765</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>248.8459030488245</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>110.4338048678518</v>
+        <v>66.87176761382796</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>101.8363156449108</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>254.5871720989608</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>82.87935969080564</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>331.8898480104186</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25093,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>56.52404241232546</v>
+        <v>168.8103647053326</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>331.8898480104187</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>66.44552420180366</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>70.14976084898765</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>204.7509947629282</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25400,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>47.5161399722503</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>255.1805474109849</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>94.2214247439222</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>205.9341107078709</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>97.95568926599742</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493172</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>198.5902886500596</v>
+        <v>198.5902886500603</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>290.3129182374932</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>231.8157466370803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>108.3081818887567</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -26080,16 +26082,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>92.9364297081689</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806150.3945534367</v>
+        <v>806150.3945534368</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>806150.3945534367</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534363</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>806150.3945534362</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534363</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534363</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>345493.0262371869</v>
       </c>
       <c r="C2" t="n">
+        <v>345493.0262371869</v>
+      </c>
+      <c r="D2" t="n">
         <v>345493.0262371868</v>
-      </c>
-      <c r="D2" t="n">
-        <v>345493.0262371869</v>
       </c>
       <c r="E2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="F2" t="n">
+        <v>345493.026237187</v>
+      </c>
+      <c r="G2" t="n">
         <v>345493.0262371869</v>
-      </c>
-      <c r="G2" t="n">
-        <v>345493.0262371867</v>
       </c>
       <c r="H2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="I2" t="n">
-        <v>345493.0262371867</v>
+        <v>345493.0262371869</v>
       </c>
       <c r="J2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.0262371869</v>
       </c>
       <c r="K2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="L2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.026237187</v>
       </c>
       <c r="M2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="N2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.0262371869</v>
       </c>
       <c r="O2" t="n">
-        <v>345493.026237187</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="P2" t="n">
         <v>345493.0262371868</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.357775545329787e-10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.391791546571767e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26401,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="D4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061235</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="L4" t="n">
         <v>584.646989006123</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="N4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="P4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061228</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
+        <v>74306.34056139333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="H5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26525,25 +26527,25 @@
         <v>236974.4386867874</v>
       </c>
       <c r="D6" t="n">
-        <v>236974.4386867875</v>
+        <v>236974.4386867876</v>
       </c>
       <c r="E6" t="n">
-        <v>270602.0386867875</v>
+        <v>270602.0386867873</v>
       </c>
       <c r="F6" t="n">
-        <v>270602.0386867875</v>
+        <v>270602.038686787</v>
       </c>
       <c r="G6" t="n">
-        <v>270602.0386867872</v>
+        <v>270602.0386867876</v>
       </c>
       <c r="H6" t="n">
         <v>270602.0386867875</v>
       </c>
       <c r="I6" t="n">
-        <v>270602.0386867874</v>
+        <v>270602.0386867876</v>
       </c>
       <c r="J6" t="n">
-        <v>53070.83628950996</v>
+        <v>53070.83628951012</v>
       </c>
       <c r="K6" t="n">
         <v>270602.0386867875</v>
@@ -26555,7 +26557,7 @@
         <v>270602.0386867875</v>
       </c>
       <c r="N6" t="n">
-        <v>270602.0386867874</v>
+        <v>270602.0386867872</v>
       </c>
       <c r="O6" t="n">
         <v>270602.0386867876</v>
@@ -26747,13 +26749,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26790,46 +26792,46 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26969,7 +26971,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563592</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I14" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353141</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837919</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32795,7 +32797,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574987</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33916,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33971,10 +33973,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035317</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987485</v>
@@ -34235,10 +34237,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987485</v>
@@ -34472,10 +34474,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222709</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609551</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004586</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M22" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K28" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L28" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M28" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N28" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O28" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P28" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K31" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L31" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M31" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N31" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O31" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P31" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.921115830226</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M34" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O34" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O37" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060958</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
         <v>159.233896612727</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
         <v>159.233896612727</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
